--- a/controlFacturas/Facturas por pagar.xlsx
+++ b/controlFacturas/Facturas por pagar.xlsx
@@ -15,6 +15,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$C$1:$C$67</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$C$1:$C$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Hoja1!$C$1:$C$67</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -205,7 +206,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,10 +245,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -357,16 +354,14 @@
   </sheetPr>
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D57" activeCellId="0" sqref="D57:D62"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E65" activeCellId="0" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7773279352227"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2267206477733"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.6315789473684"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.7773279352227"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.4696356275304"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.1174089068826"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,10 +678,10 @@
       <c r="A21" s="3" t="n">
         <v>42499</v>
       </c>
-      <c r="B21" s="10" t="n">
+      <c r="B21" s="4" t="n">
         <v>171</v>
       </c>
-      <c r="C21" s="10" t="n">
+      <c r="C21" s="4" t="n">
         <v>4510557708</v>
       </c>
       <c r="D21" s="5" t="n">
@@ -700,10 +695,10 @@
       <c r="A22" s="3" t="n">
         <v>42502</v>
       </c>
-      <c r="B22" s="10" t="n">
+      <c r="B22" s="4" t="n">
         <v>172</v>
       </c>
-      <c r="C22" s="10" t="n">
+      <c r="C22" s="4" t="n">
         <v>4510555098</v>
       </c>
       <c r="D22" s="5" t="n">
@@ -717,10 +712,10 @@
       <c r="A23" s="3" t="n">
         <v>42510</v>
       </c>
-      <c r="B23" s="10" t="n">
+      <c r="B23" s="4" t="n">
         <v>173</v>
       </c>
-      <c r="C23" s="10" t="n">
+      <c r="C23" s="4" t="n">
         <v>4510561570</v>
       </c>
       <c r="D23" s="5" t="n">
@@ -732,10 +727,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
-      <c r="B24" s="10" t="n">
+      <c r="B24" s="4" t="n">
         <v>174</v>
       </c>
-      <c r="C24" s="10" t="n">
+      <c r="C24" s="4" t="n">
         <v>4510563874</v>
       </c>
       <c r="D24" s="5" t="n">
@@ -749,10 +744,10 @@
       <c r="A25" s="3" t="n">
         <v>42514</v>
       </c>
-      <c r="B25" s="10" t="n">
+      <c r="B25" s="4" t="n">
         <v>175</v>
       </c>
-      <c r="C25" s="10" t="n">
+      <c r="C25" s="4" t="n">
         <v>4510568796</v>
       </c>
       <c r="D25" s="5" t="n">
@@ -764,7 +759,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3"/>
-      <c r="B26" s="10" t="n">
+      <c r="B26" s="4" t="n">
         <v>176</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -778,16 +773,16 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="n">
+      <c r="A27" s="10" t="n">
         <v>42530</v>
       </c>
-      <c r="B27" s="12" t="n">
+      <c r="B27" s="11" t="n">
         <v>177</v>
       </c>
-      <c r="C27" s="12" t="n">
+      <c r="C27" s="11" t="n">
         <v>4510568859</v>
       </c>
-      <c r="D27" s="13" t="n">
+      <c r="D27" s="12" t="n">
         <v>5000</v>
       </c>
       <c r="E27" s="6" t="n">
@@ -795,14 +790,14 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12" t="n">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11" t="n">
         <v>178</v>
       </c>
-      <c r="C28" s="12" t="n">
+      <c r="C28" s="11" t="n">
         <v>4510576584</v>
       </c>
-      <c r="D28" s="13" t="n">
+      <c r="D28" s="12" t="n">
         <v>76130</v>
       </c>
       <c r="E28" s="6" t="n">
@@ -811,17 +806,17 @@
       <c r="G28" s="0" t="n">
         <v>76891.3</v>
       </c>
-      <c r="N28" s="14"/>
+      <c r="N28" s="13"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12" t="n">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11" t="n">
         <v>179</v>
       </c>
-      <c r="C29" s="12" t="n">
+      <c r="C29" s="11" t="n">
         <v>4510577200</v>
       </c>
-      <c r="D29" s="13" t="n">
+      <c r="D29" s="12" t="n">
         <v>3400</v>
       </c>
       <c r="E29" s="6" t="n">
@@ -829,14 +824,14 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12" t="n">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11" t="n">
         <v>180</v>
       </c>
-      <c r="C30" s="12" t="n">
+      <c r="C30" s="11" t="n">
         <v>4510580329</v>
       </c>
-      <c r="D30" s="13" t="n">
+      <c r="D30" s="12" t="n">
         <v>3400</v>
       </c>
       <c r="E30" s="6" t="n">
@@ -847,7 +842,7 @@
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="10" t="n">
+      <c r="B31" s="4" t="n">
         <v>181</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1245,9 +1240,11 @@
       <c r="D57" s="5" t="n">
         <v>16920</v>
       </c>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="6" t="n">
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3"/>
       <c r="B58" s="4" t="n">
         <f aca="false">B57+1</f>
@@ -1259,9 +1256,11 @@
       <c r="D58" s="5" t="n">
         <v>12000</v>
       </c>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="6" t="n">
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3"/>
       <c r="B59" s="4" t="n">
         <f aca="false">B58+1</f>
@@ -1273,9 +1272,11 @@
       <c r="D59" s="5" t="n">
         <v>52680</v>
       </c>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E59" s="6" t="n">
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="n">
         <f aca="false">B59+1</f>
@@ -1287,9 +1288,11 @@
       <c r="D60" s="5" t="n">
         <v>87960</v>
       </c>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="6" t="n">
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3"/>
       <c r="B61" s="4" t="n">
         <f aca="false">B60+1</f>
@@ -1301,9 +1304,11 @@
       <c r="D61" s="5" t="n">
         <v>4200</v>
       </c>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E61" s="6" t="n">
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3"/>
       <c r="B62" s="4" t="n">
         <f aca="false">B61+1</f>
@@ -1315,7 +1320,9 @@
       <c r="D62" s="5" t="n">
         <v>50080</v>
       </c>
-      <c r="E62" s="6"/>
+      <c r="E62" s="6" t="n">
+        <v>42634</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
@@ -1345,7 +1352,9 @@
       <c r="D64" s="5" t="n">
         <v>3000</v>
       </c>
-      <c r="E64" s="6"/>
+      <c r="E64" s="6" t="n">
+        <v>42634</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3"/>
@@ -1362,12 +1371,12 @@
       <c r="E66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="16" t="n">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="15" t="n">
         <f aca="false">SUM(D3:D30)</f>
         <v>575290.82</v>
       </c>
@@ -1411,13 +1420,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D57:D62 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.7773279352227"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1437,13 +1443,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D57:D62 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.7773279352227"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/controlFacturas/Facturas por pagar.xlsx
+++ b/controlFacturas/Facturas por pagar.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\proyectos\pruebaRB\controlFacturas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$C$1:$C$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Hoja1!$C$1:$C$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Hoja1!$C$1:$C$77</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,70 +31,50 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
-    <t xml:space="preserve">Facturas Pendientes por pagar</t>
+    <t>Facturas Pendientes por pagar</t>
   </si>
   <si>
-    <t xml:space="preserve">Fecha</t>
+    <t>Fecha</t>
   </si>
   <si>
-    <t xml:space="preserve">No Factura</t>
+    <t>No Factura</t>
   </si>
   <si>
-    <t xml:space="preserve">ODC</t>
+    <t>ODC</t>
   </si>
   <si>
-    <t xml:space="preserve">Monto</t>
+    <t>Monto</t>
   </si>
   <si>
-    <t xml:space="preserve">Fecha de Pago</t>
+    <t>Fecha de Pago</t>
   </si>
   <si>
-    <t xml:space="preserve">No Pertenece a Sistemas</t>
+    <t>No Pertenece a Sistemas</t>
   </si>
   <si>
-    <t xml:space="preserve">iris Espinoza</t>
+    <t>iris Espinoza</t>
   </si>
   <si>
-    <t xml:space="preserve">NULA</t>
+    <t>NULA</t>
   </si>
   <si>
-    <t xml:space="preserve">claudia</t>
+    <t>claudia</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTALES</t>
+    <t>TOTALES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -101,7 +84,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -109,7 +92,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -117,7 +100,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -157,132 +140,129 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="6">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -341,1116 +321,1518 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:N67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D57" activeCellId="0" sqref="D57:D62"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7773279352227"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2267206477733"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.6315789473684"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.7773279352227"/>
+    <col min="1" max="3" width="10.75"/>
+    <col min="4" max="4" width="13.25"/>
+    <col min="5" max="5" width="23.625"/>
+    <col min="6" max="1025" width="10.75"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>42457</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="6">
         <v>152</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="6">
         <v>4510476297</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="7">
         <v>3740</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="8">
         <v>42495</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="6">
         <v>153</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="6">
         <v>4510481629</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="7">
         <v>40882.6</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="8">
         <v>42495</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>42459</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="6">
         <v>154</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="6">
         <v>4510475498</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>9274.2</v>
-      </c>
-      <c r="E5" s="6" t="n">
+      <c r="D5" s="7">
+        <v>9274.2000000000007</v>
+      </c>
+      <c r="E5" s="8">
         <v>42496</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="6">
         <v>155</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="6">
         <v>4510481944</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="7">
         <v>12102.6</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="8">
         <v>42495</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="n">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="6">
         <v>156</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="6">
         <v>4510485738</v>
       </c>
-      <c r="D7" s="5" t="n">
-        <v>8875.2</v>
-      </c>
-      <c r="E7" s="6" t="n">
+      <c r="D7" s="7">
+        <v>8875.2000000000007</v>
+      </c>
+      <c r="E7" s="8">
         <v>42495</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>42461</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="6">
         <v>157</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="6">
         <v>4510500562</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="7">
         <v>3400</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="8">
         <v>42495</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="6">
         <v>158</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="6">
         <v>4510503721</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="7">
         <v>6743.2</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="8">
         <v>42495</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>42468</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="6">
         <v>159</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="6">
         <v>4510411434</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="7">
         <v>37702</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="8">
         <v>42504</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="6">
         <v>160</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="6">
         <v>4510429416</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="7">
         <v>16075</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="8">
         <v>42504</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="6">
         <v>161</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="6">
         <v>4510515701</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="7">
         <v>45282.6</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="8">
         <v>42503</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="9">
         <v>162</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="9">
         <v>4510504335</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="10">
         <v>128751.28</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>42472</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="6">
         <v>163</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="6">
         <v>4510502369</v>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>10464.2</v>
-      </c>
-      <c r="E14" s="6" t="n">
+      <c r="D14" s="7">
+        <v>10464.200000000001</v>
+      </c>
+      <c r="E14" s="8">
         <v>42505</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>42482</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="6">
         <v>165</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="6">
         <v>4510539337</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="7">
         <v>1700</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="8">
         <v>42512</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="6">
         <v>166</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="6">
         <v>4510539334</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="7">
         <v>3400</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="8">
         <v>42146</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="n">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="6">
         <v>167</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="6">
         <v>4510527874</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="7">
         <v>27467.14</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="8">
         <v>42146</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>42487</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="6">
         <v>168</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="6">
         <v>4510541531</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="7">
         <v>12180.8</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="8">
         <v>42523</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="n">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="6">
         <v>169</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="6">
         <v>4510541779</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="7">
         <v>9000</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="8">
         <v>42523</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="n">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="6">
         <v>170</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="6">
         <v>4510545794</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="7">
         <v>3400</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="8">
         <v>42523</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>42499</v>
       </c>
-      <c r="B21" s="10" t="n">
+      <c r="B21" s="12">
         <v>171</v>
       </c>
-      <c r="C21" s="10" t="n">
+      <c r="C21" s="12">
         <v>4510557708</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="7">
         <v>3400</v>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="8">
         <v>42508</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>42502</v>
       </c>
-      <c r="B22" s="10" t="n">
+      <c r="B22" s="12">
         <v>172</v>
       </c>
-      <c r="C22" s="10" t="n">
+      <c r="C22" s="12">
         <v>4510555098</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="7">
         <v>3400</v>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E22" s="8">
         <v>42508</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>42510</v>
       </c>
-      <c r="B23" s="10" t="n">
+      <c r="B23" s="12">
         <v>173</v>
       </c>
-      <c r="C23" s="10" t="n">
+      <c r="C23" s="12">
         <v>4510561570</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="7">
         <v>15500</v>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="E23" s="8">
         <v>42536</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-      <c r="B24" s="10" t="n">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="12">
         <v>174</v>
       </c>
-      <c r="C24" s="10" t="n">
+      <c r="C24" s="12">
         <v>4510563874</v>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="D24" s="7">
         <v>16080</v>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="E24" s="8">
         <v>42536</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>42514</v>
       </c>
-      <c r="B25" s="10" t="n">
+      <c r="B25" s="12">
         <v>175</v>
       </c>
-      <c r="C25" s="10" t="n">
+      <c r="C25" s="12">
         <v>4510568796</v>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="D25" s="7">
         <v>63540</v>
       </c>
-      <c r="E25" s="6" t="n">
+      <c r="E25" s="8">
         <v>42543</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="10" t="n">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="12">
         <v>176</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="D26" s="7">
         <v>5000</v>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="E26" s="8">
         <v>42543</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="n">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>42530</v>
       </c>
-      <c r="B27" s="12" t="n">
+      <c r="B27" s="13">
         <v>177</v>
       </c>
-      <c r="C27" s="12" t="n">
+      <c r="C27" s="13">
         <v>4510568859</v>
       </c>
-      <c r="D27" s="13" t="n">
+      <c r="D27" s="14">
         <v>5000</v>
       </c>
-      <c r="E27" s="6" t="n">
+      <c r="E27" s="8">
         <v>42580</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12" t="n">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="13">
         <v>178</v>
       </c>
-      <c r="C28" s="12" t="n">
+      <c r="C28" s="13">
         <v>4510576584</v>
       </c>
-      <c r="D28" s="13" t="n">
+      <c r="D28" s="14">
         <v>76130</v>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="E28" s="8">
         <v>42593</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28">
         <v>76891.3</v>
       </c>
-      <c r="N28" s="14"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12" t="n">
+      <c r="N28" s="15"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="13">
         <v>179</v>
       </c>
-      <c r="C29" s="12" t="n">
+      <c r="C29" s="13">
         <v>4510577200</v>
       </c>
-      <c r="D29" s="13" t="n">
+      <c r="D29" s="14">
         <v>3400</v>
       </c>
-      <c r="E29" s="6" t="n">
+      <c r="E29" s="8">
         <v>42573</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12" t="n">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="13">
         <v>180</v>
       </c>
-      <c r="C30" s="12" t="n">
+      <c r="C30" s="13">
         <v>4510580329</v>
       </c>
-      <c r="D30" s="13" t="n">
+      <c r="D30" s="14">
         <v>3400</v>
       </c>
-      <c r="E30" s="6" t="n">
+      <c r="E30" s="8">
         <v>42573</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="10" t="n">
+      <c r="B31" s="12">
         <v>181</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="n">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>42538</v>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="6">
         <v>182</v>
       </c>
-      <c r="C32" s="4" t="n">
+      <c r="C32" s="6">
         <v>4510582834</v>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="D32" s="7">
         <v>32210</v>
       </c>
-      <c r="E32" s="6" t="n">
+      <c r="E32" s="8">
         <v>42559</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4" t="n">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="6">
         <v>183</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="D33" s="7">
         <v>17700</v>
       </c>
-      <c r="E33" s="6" t="n">
+      <c r="E33" s="8">
         <v>42572</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4" t="n">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6">
         <v>184</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4" t="n">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6">
         <v>185</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4" t="n">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6">
         <v>186</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="3" t="n">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>42564</v>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="6">
         <v>187</v>
       </c>
-      <c r="C37" s="4" t="n">
+      <c r="C37" s="6">
         <v>4510593004</v>
       </c>
-      <c r="D37" s="5" t="n">
+      <c r="D37" s="7">
         <v>1700</v>
       </c>
-      <c r="E37" s="6" t="n">
+      <c r="E37" s="8">
         <v>42580</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4" t="n">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="6">
         <v>188</v>
       </c>
-      <c r="C38" s="4" t="n">
+      <c r="C38" s="6">
         <v>4510592668</v>
       </c>
-      <c r="D38" s="5" t="n">
+      <c r="D38" s="7">
         <v>35560</v>
       </c>
-      <c r="E38" s="6" t="n">
+      <c r="E38" s="8">
         <v>42580</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4" t="n">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="6">
         <v>189</v>
       </c>
-      <c r="C39" s="4" t="n">
+      <c r="C39" s="6">
         <v>4510594893</v>
       </c>
-      <c r="D39" s="5" t="n">
+      <c r="D39" s="7">
         <v>3400</v>
       </c>
-      <c r="E39" s="6" t="n">
+      <c r="E39" s="8">
         <v>42580</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4" t="n">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="6">
         <v>190</v>
       </c>
-      <c r="C40" s="4" t="n">
+      <c r="C40" s="6">
         <v>4510595410</v>
       </c>
-      <c r="D40" s="5" t="n">
+      <c r="D40" s="7">
         <v>15820</v>
       </c>
-      <c r="E40" s="6" t="n">
+      <c r="E40" s="8">
         <v>42580</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4" t="n">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="6">
         <v>191</v>
       </c>
-      <c r="C41" s="4" t="n">
+      <c r="C41" s="6">
         <v>4510600178</v>
       </c>
-      <c r="D41" s="5" t="n">
+      <c r="D41" s="7">
         <v>15040</v>
       </c>
-      <c r="E41" s="6" t="n">
+      <c r="E41" s="8">
         <v>42580</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="3" t="n">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>42572</v>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="6">
         <v>192</v>
       </c>
-      <c r="C42" s="4" t="n">
+      <c r="C42" s="6">
         <v>4510603676</v>
       </c>
-      <c r="D42" s="5" t="n">
+      <c r="D42" s="7">
         <v>54540</v>
       </c>
-      <c r="E42" s="6" t="n">
+      <c r="E42" s="8">
         <v>42587</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4" t="n">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="6">
         <v>193</v>
       </c>
-      <c r="C43" s="4" t="n">
+      <c r="C43" s="6">
         <v>4510611078</v>
       </c>
-      <c r="D43" s="5" t="n">
+      <c r="D43" s="7">
         <v>19780.8</v>
       </c>
-      <c r="E43" s="6" t="n">
+      <c r="E43" s="8">
         <v>42606</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4" t="n">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="6">
         <v>194</v>
       </c>
-      <c r="C44" s="4" t="n">
+      <c r="C44" s="6">
         <v>4510611076</v>
       </c>
-      <c r="D44" s="5" t="n">
+      <c r="D44" s="7">
         <v>13260</v>
       </c>
-      <c r="E44" s="6" t="n">
+      <c r="E44" s="8">
         <v>42606</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4" t="n">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="6">
         <v>195</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="5" t="n">
+      <c r="D45" s="7">
         <v>7600</v>
       </c>
-      <c r="E45" s="6" t="n">
+      <c r="E45" s="8">
         <v>42607</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="n">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>42576</v>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="6">
         <v>196</v>
       </c>
-      <c r="C46" s="4" t="n">
+      <c r="C46" s="6">
         <v>4510604029</v>
       </c>
-      <c r="D46" s="5" t="n">
+      <c r="D46" s="7">
         <v>18820</v>
       </c>
-      <c r="E46" s="6" t="n">
+      <c r="E46" s="8">
         <v>42600</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4" t="n">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="6">
         <v>197</v>
       </c>
-      <c r="C47" s="4" t="n">
+      <c r="C47" s="6">
         <v>4510607624</v>
       </c>
-      <c r="D47" s="5" t="n">
+      <c r="D47" s="7">
         <v>5100</v>
       </c>
-      <c r="E47" s="6" t="n">
+      <c r="E47" s="8">
         <v>42606</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3" t="n">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>42587</v>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="6">
         <v>198</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="5" t="n">
+      <c r="D48" s="7">
         <v>9000</v>
       </c>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="n">
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>42590</v>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="6">
         <v>199</v>
       </c>
-      <c r="C49" s="4" t="n">
+      <c r="C49" s="6">
         <v>4510621328</v>
       </c>
-      <c r="D49" s="5" t="n">
+      <c r="D49" s="7">
         <v>11289.6</v>
       </c>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4" t="n">
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="6">
         <v>200</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3"/>
-      <c r="B51" s="4" t="n">
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="6">
         <v>201</v>
       </c>
-      <c r="C51" s="4" t="n">
+      <c r="C51" s="6">
         <v>4510620143</v>
       </c>
-      <c r="D51" s="5" t="n">
+      <c r="D51" s="7">
         <v>47896.6</v>
       </c>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3"/>
-      <c r="B52" s="4" t="n">
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="6">
         <v>202</v>
       </c>
-      <c r="C52" s="4" t="n">
+      <c r="C52" s="6">
         <v>4510620148</v>
       </c>
-      <c r="D52" s="5" t="n">
+      <c r="D52" s="7">
         <v>1700</v>
       </c>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3"/>
-      <c r="B53" s="4" t="n">
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="6">
         <v>203</v>
       </c>
-      <c r="C53" s="4" t="n">
+      <c r="C53" s="6">
         <v>4510620151</v>
       </c>
-      <c r="D53" s="5" t="n">
+      <c r="D53" s="7">
         <v>3400</v>
       </c>
-      <c r="E53" s="6"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3"/>
-      <c r="B54" s="4" t="n">
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="6">
         <v>204</v>
       </c>
-      <c r="C54" s="4" t="n">
+      <c r="C54" s="6">
         <v>4510607623</v>
       </c>
-      <c r="D54" s="5" t="n">
+      <c r="D54" s="7">
         <v>2240</v>
       </c>
-      <c r="E54" s="6"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3"/>
-      <c r="B55" s="4" t="n">
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="6">
         <v>205</v>
       </c>
-      <c r="C55" s="4" t="n">
+      <c r="C55" s="6">
         <v>4510608185</v>
       </c>
-      <c r="D55" s="5" t="n">
+      <c r="D55" s="7">
         <v>28480</v>
       </c>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3"/>
-      <c r="B56" s="4" t="n">
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="6">
         <v>206</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="5" t="n">
+      <c r="D56" s="7">
         <v>5000</v>
       </c>
-      <c r="E56" s="6" t="n">
+      <c r="E56" s="8">
         <v>42600</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
         <v>42599</v>
       </c>
-      <c r="B57" s="4" t="n">
-        <f aca="false">B56+1</f>
+      <c r="B57" s="6">
+        <f t="shared" ref="B57:B76" si="0">B56+1</f>
         <v>207</v>
       </c>
-      <c r="C57" s="4" t="n">
+      <c r="C57" s="6">
         <v>4510641142</v>
       </c>
-      <c r="D57" s="5" t="n">
+      <c r="D57" s="7">
         <v>16920</v>
       </c>
-      <c r="E57" s="6"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4" t="n">
-        <f aca="false">B57+1</f>
+      <c r="E57" s="8">
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="6">
+        <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="C58" s="4" t="n">
+      <c r="C58" s="6">
         <v>4510638628</v>
       </c>
-      <c r="D58" s="5" t="n">
+      <c r="D58" s="7">
         <v>12000</v>
       </c>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3"/>
-      <c r="B59" s="4" t="n">
-        <f aca="false">B58+1</f>
+      <c r="E58" s="8">
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="6">
+        <f t="shared" si="0"/>
         <v>209</v>
       </c>
-      <c r="C59" s="4" t="n">
+      <c r="C59" s="6">
         <v>4510638629</v>
       </c>
-      <c r="D59" s="5" t="n">
+      <c r="D59" s="7">
         <v>52680</v>
       </c>
-      <c r="E59" s="6"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4" t="n">
-        <f aca="false">B59+1</f>
+      <c r="E59" s="8">
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="6">
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="C60" s="4" t="n">
+      <c r="C60" s="6">
         <v>4510635202</v>
       </c>
-      <c r="D60" s="5" t="n">
+      <c r="D60" s="7">
         <v>87960</v>
       </c>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4" t="n">
-        <f aca="false">B60+1</f>
+      <c r="E60" s="8">
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="6">
+        <f t="shared" si="0"/>
         <v>211</v>
       </c>
-      <c r="C61" s="4" t="n">
+      <c r="C61" s="6">
         <v>4510635008</v>
       </c>
-      <c r="D61" s="5" t="n">
+      <c r="D61" s="7">
         <v>4200</v>
       </c>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3"/>
-      <c r="B62" s="4" t="n">
-        <f aca="false">B61+1</f>
+      <c r="E61" s="8">
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="6">
+        <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="C62" s="4" t="n">
+      <c r="C62" s="6">
         <v>4510634989</v>
       </c>
-      <c r="D62" s="5" t="n">
+      <c r="D62" s="7">
         <v>50080</v>
       </c>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3"/>
-      <c r="B63" s="4" t="n">
-        <f aca="false">B62+1</f>
+      <c r="E62" s="8">
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="6">
+        <f t="shared" si="0"/>
         <v>213</v>
       </c>
-      <c r="C63" s="4" t="n">
+      <c r="C63" s="6">
         <v>4510635009</v>
       </c>
-      <c r="D63" s="5" t="n">
+      <c r="D63" s="7">
         <v>11800</v>
       </c>
-      <c r="E63" s="6" t="n">
+      <c r="E63" s="8">
         <v>42611</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3"/>
-      <c r="B64" s="4" t="n">
-        <f aca="false">B63+1</f>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="6">
+        <f t="shared" si="0"/>
         <v>214</v>
       </c>
-      <c r="C64" s="4" t="n">
+      <c r="C64" s="6">
         <v>4510635006</v>
       </c>
-      <c r="D64" s="5" t="n">
+      <c r="D64" s="7">
         <v>3000</v>
       </c>
-      <c r="E64" s="6"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="15" t="s">
+      <c r="E64" s="8">
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="18">
+        <v>42621</v>
+      </c>
+      <c r="B65" s="12">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="C65" s="12">
+        <v>4510661215</v>
+      </c>
+      <c r="D65" s="7">
+        <v>11000</v>
+      </c>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="19"/>
+      <c r="B66" s="12">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="C66" s="12">
+        <v>4510660597</v>
+      </c>
+      <c r="D66" s="7">
+        <v>52560</v>
+      </c>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="19"/>
+      <c r="B67" s="12">
+        <f t="shared" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="C67" s="12">
+        <v>4510655085</v>
+      </c>
+      <c r="D67" s="7">
+        <v>22960</v>
+      </c>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="12">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="C68" s="12">
+        <v>4510645159</v>
+      </c>
+      <c r="D68" s="7">
+        <v>9000</v>
+      </c>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="20"/>
+      <c r="B69" s="12">
+        <f t="shared" si="0"/>
+        <v>219</v>
+      </c>
+      <c r="C69" s="12">
+        <v>4510669364</v>
+      </c>
+      <c r="D69" s="7">
+        <v>61680</v>
+      </c>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="18">
+        <v>42632</v>
+      </c>
+      <c r="B70" s="12">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="C70" s="12">
+        <v>4510679908</v>
+      </c>
+      <c r="D70" s="7">
+        <v>10700</v>
+      </c>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="20"/>
+      <c r="B71" s="12">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="C71" s="12">
+        <v>4510679910</v>
+      </c>
+      <c r="D71" s="7">
+        <v>23000</v>
+      </c>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="12">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="12">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="12">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="12">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="12">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="16" t="n">
-        <f aca="false">SUM(D3:D30)</f>
-        <v>575290.82</v>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="17">
+        <f>SUM(D3:D30)</f>
+        <v>575290.82000000007</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C67"/>
-  <mergeCells count="16">
+  <autoFilter ref="C1:C77"/>
+  <mergeCells count="18">
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A49:A56"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A30"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A49:A56"/>
-    <mergeCell ref="A57:A64"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D57:D62 A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCellId="1" sqref="D57:D62 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.7773279352227"/>
+    <col min="1" max="1025" width="10.75"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D57:D62 A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCellId="1" sqref="D57:D62 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.7773279352227"/>
+    <col min="1" max="1025" width="10.75"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>